--- a/CoachHub Case Study_Forecast Example.xlsx
+++ b/CoachHub Case Study_Forecast Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2798d4224eb76c4d/CoachHub Case Study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{155FAA3C-1BA8-6F47-8708-5B234240A8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA615D5A-1335-5F4D-9A42-69256356DF5B}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{155FAA3C-1BA8-6F47-8708-5B234240A8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C45F1D2B-A56E-8947-947E-E92D1AFE24CD}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19620" activeTab="1" xr2:uid="{AF7D583F-DEB6-4AD6-BD6C-742FF7B868CD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19620" activeTab="3" xr2:uid="{AF7D583F-DEB6-4AD6-BD6C-742FF7B868CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Forecast Model A" sheetId="11" r:id="rId1"/>
@@ -1464,7 +1464,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA162ADF-BF2B-DD4D-BB4B-51A2824293D5}">
   <dimension ref="A1:T107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J101"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1581,7 +1583,7 @@
         <v>8</v>
       </c>
       <c r="J2" s="23">
-        <v>45899</v>
+        <v>45991</v>
       </c>
       <c r="K2">
         <v>6</v>
@@ -1651,7 +1653,7 @@
         <v>11</v>
       </c>
       <c r="J3" s="23">
-        <v>45872</v>
+        <v>45992</v>
       </c>
       <c r="K3">
         <v>5</v>
@@ -1721,7 +1723,7 @@
         <v>10</v>
       </c>
       <c r="J4" s="23">
-        <v>45929</v>
+        <v>45993</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -1791,7 +1793,7 @@
         <v>10</v>
       </c>
       <c r="J5" s="23">
-        <v>45930</v>
+        <v>45994</v>
       </c>
       <c r="K5">
         <v>6</v>
@@ -1861,7 +1863,7 @@
         <v>11</v>
       </c>
       <c r="J6" s="23">
-        <v>45870</v>
+        <v>45995</v>
       </c>
       <c r="K6">
         <v>7</v>
@@ -1931,7 +1933,7 @@
         <v>8</v>
       </c>
       <c r="J7" s="23">
-        <v>45895</v>
+        <v>45996</v>
       </c>
       <c r="K7">
         <v>6</v>
@@ -2001,7 +2003,7 @@
         <v>11</v>
       </c>
       <c r="J8" s="23">
-        <v>45898</v>
+        <v>45997</v>
       </c>
       <c r="K8">
         <v>7</v>
@@ -2071,7 +2073,7 @@
         <v>10</v>
       </c>
       <c r="J9" s="23">
-        <v>45930</v>
+        <v>45998</v>
       </c>
       <c r="K9">
         <v>6</v>
@@ -2141,7 +2143,7 @@
         <v>10</v>
       </c>
       <c r="J10" s="23">
-        <v>45899</v>
+        <v>45999</v>
       </c>
       <c r="K10">
         <v>7</v>
@@ -2211,7 +2213,7 @@
         <v>10</v>
       </c>
       <c r="J11" s="23">
-        <v>45899</v>
+        <v>46000</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -2281,7 +2283,7 @@
         <v>11</v>
       </c>
       <c r="J12" s="23">
-        <v>45896</v>
+        <v>46001</v>
       </c>
       <c r="K12">
         <v>8</v>
@@ -2351,7 +2353,7 @@
         <v>8</v>
       </c>
       <c r="J13" s="23">
-        <v>45930</v>
+        <v>46002</v>
       </c>
       <c r="K13">
         <v>9</v>
@@ -2421,7 +2423,7 @@
         <v>8</v>
       </c>
       <c r="J14" s="23">
-        <v>45883</v>
+        <v>46003</v>
       </c>
       <c r="K14">
         <v>10</v>
@@ -2491,7 +2493,7 @@
         <v>8</v>
       </c>
       <c r="J15" s="23">
-        <v>45897</v>
+        <v>46004</v>
       </c>
       <c r="K15">
         <v>5</v>
@@ -2561,7 +2563,7 @@
         <v>8</v>
       </c>
       <c r="J16" s="23">
-        <v>45930</v>
+        <v>46005</v>
       </c>
       <c r="K16">
         <v>7</v>
@@ -2631,7 +2633,7 @@
         <v>10</v>
       </c>
       <c r="J17" s="23">
-        <v>45930</v>
+        <v>46006</v>
       </c>
       <c r="K17">
         <v>9</v>
@@ -2701,7 +2703,7 @@
         <v>11</v>
       </c>
       <c r="J18" s="23">
-        <v>45889</v>
+        <v>46007</v>
       </c>
       <c r="K18">
         <v>7</v>
@@ -2771,7 +2773,7 @@
         <v>11</v>
       </c>
       <c r="J19" s="23">
-        <v>45894</v>
+        <v>46008</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -2841,7 +2843,7 @@
         <v>11</v>
       </c>
       <c r="J20" s="23">
-        <v>45904</v>
+        <v>46009</v>
       </c>
       <c r="K20" s="4">
         <v>3</v>
@@ -2911,7 +2913,7 @@
         <v>10</v>
       </c>
       <c r="J21" s="23">
-        <v>45923</v>
+        <v>46010</v>
       </c>
       <c r="K21">
         <v>8</v>
@@ -2981,7 +2983,7 @@
         <v>11</v>
       </c>
       <c r="J22" s="23">
-        <v>45873</v>
+        <v>46011</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -3051,7 +3053,7 @@
         <v>8</v>
       </c>
       <c r="J23" s="23">
-        <v>45885</v>
+        <v>46012</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -3121,7 +3123,7 @@
         <v>10</v>
       </c>
       <c r="J24" s="23">
-        <v>45919</v>
+        <v>46013</v>
       </c>
       <c r="K24">
         <v>9</v>
@@ -3191,7 +3193,7 @@
         <v>10</v>
       </c>
       <c r="J25" s="23">
-        <v>45922</v>
+        <v>46014</v>
       </c>
       <c r="K25">
         <v>9</v>
@@ -3261,7 +3263,7 @@
         <v>8</v>
       </c>
       <c r="J26" s="23">
-        <v>45930</v>
+        <v>46015</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -5711,7 +5713,7 @@
         <v>9</v>
       </c>
       <c r="J61" s="23">
-        <v>45890</v>
+        <v>45991</v>
       </c>
       <c r="K61" s="4">
         <v>5</v>
@@ -5781,7 +5783,7 @@
         <v>10</v>
       </c>
       <c r="J62" s="23">
-        <v>45893</v>
+        <v>45992</v>
       </c>
       <c r="K62">
         <v>1</v>
@@ -5851,7 +5853,7 @@
         <v>10</v>
       </c>
       <c r="J63" s="23">
-        <v>45907</v>
+        <v>45993</v>
       </c>
       <c r="K63">
         <v>3</v>
@@ -5921,7 +5923,7 @@
         <v>9</v>
       </c>
       <c r="J64" s="23">
-        <v>45951</v>
+        <v>45994</v>
       </c>
       <c r="K64">
         <v>5</v>
@@ -5991,7 +5993,7 @@
         <v>11</v>
       </c>
       <c r="J65" s="23">
-        <v>45901</v>
+        <v>45995</v>
       </c>
       <c r="K65">
         <v>8</v>
@@ -6061,7 +6063,7 @@
         <v>8</v>
       </c>
       <c r="J66" s="23">
-        <v>45911</v>
+        <v>45996</v>
       </c>
       <c r="K66">
         <v>2</v>
@@ -6131,7 +6133,7 @@
         <v>10</v>
       </c>
       <c r="J67" s="23">
-        <v>45916</v>
+        <v>45997</v>
       </c>
       <c r="K67">
         <v>2</v>
@@ -6201,7 +6203,7 @@
         <v>11</v>
       </c>
       <c r="J68" s="23">
-        <v>45874</v>
+        <v>45998</v>
       </c>
       <c r="K68">
         <v>9</v>
@@ -6271,7 +6273,7 @@
         <v>9</v>
       </c>
       <c r="J69" s="23">
-        <v>45877</v>
+        <v>45999</v>
       </c>
       <c r="K69">
         <v>5</v>
@@ -6341,7 +6343,7 @@
         <v>10</v>
       </c>
       <c r="J70" s="23">
-        <v>45908</v>
+        <v>46000</v>
       </c>
       <c r="K70">
         <v>2</v>
@@ -6411,7 +6413,7 @@
         <v>8</v>
       </c>
       <c r="J71" s="23">
-        <v>45912</v>
+        <v>46001</v>
       </c>
       <c r="K71">
         <v>9</v>
@@ -6481,7 +6483,7 @@
         <v>10</v>
       </c>
       <c r="J72" s="23">
-        <v>45914</v>
+        <v>46002</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -6551,7 +6553,7 @@
         <v>8</v>
       </c>
       <c r="J73" s="23">
-        <v>45915</v>
+        <v>46003</v>
       </c>
       <c r="K73">
         <v>1</v>
@@ -6621,7 +6623,7 @@
         <v>9</v>
       </c>
       <c r="J74" s="23">
-        <v>45871</v>
+        <v>46004</v>
       </c>
       <c r="K74">
         <v>5</v>
@@ -6691,7 +6693,7 @@
         <v>11</v>
       </c>
       <c r="J75" s="23">
-        <v>45892</v>
+        <v>46005</v>
       </c>
       <c r="K75">
         <v>2</v>
@@ -6761,7 +6763,7 @@
         <v>10</v>
       </c>
       <c r="J76" s="23">
-        <v>45906</v>
+        <v>46006</v>
       </c>
       <c r="K76">
         <v>9</v>
@@ -6831,7 +6833,7 @@
         <v>9</v>
       </c>
       <c r="J77" s="23">
-        <v>45910</v>
+        <v>46007</v>
       </c>
       <c r="K77">
         <v>8</v>
@@ -6901,7 +6903,7 @@
         <v>8</v>
       </c>
       <c r="J78" s="23">
-        <v>45917</v>
+        <v>46008</v>
       </c>
       <c r="K78">
         <v>7</v>
@@ -6971,7 +6973,7 @@
         <v>10</v>
       </c>
       <c r="J79" s="23">
-        <v>45930</v>
+        <v>46009</v>
       </c>
       <c r="K79">
         <v>9</v>
@@ -7041,7 +7043,7 @@
         <v>10</v>
       </c>
       <c r="J80" s="23">
-        <v>45930</v>
+        <v>46010</v>
       </c>
       <c r="K80">
         <v>1</v>
@@ -7111,7 +7113,7 @@
         <v>11</v>
       </c>
       <c r="J81" s="23">
-        <v>45887</v>
+        <v>46011</v>
       </c>
       <c r="K81">
         <v>5</v>
@@ -7181,7 +7183,7 @@
         <v>8</v>
       </c>
       <c r="J82" s="23">
-        <v>45899</v>
+        <v>46012</v>
       </c>
       <c r="K82">
         <v>9</v>
@@ -7251,7 +7253,7 @@
         <v>10</v>
       </c>
       <c r="J83" s="23">
-        <v>45918</v>
+        <v>46013</v>
       </c>
       <c r="K83">
         <v>5</v>
@@ -7321,7 +7323,7 @@
         <v>10</v>
       </c>
       <c r="J84" s="23">
-        <v>45925</v>
+        <v>46014</v>
       </c>
       <c r="K84">
         <v>4</v>
@@ -7391,7 +7393,7 @@
         <v>10</v>
       </c>
       <c r="J85" s="23">
-        <v>45930</v>
+        <v>46015</v>
       </c>
       <c r="K85">
         <v>6</v>
@@ -8787,7 +8789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CCB141-003B-9A4C-9534-239470579EC3}">
   <dimension ref="A1:T101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2:J101"/>
     </sheetView>
   </sheetViews>
@@ -8906,7 +8908,7 @@
         <v>8</v>
       </c>
       <c r="J2" s="23">
-        <v>45899</v>
+        <v>45991</v>
       </c>
       <c r="K2">
         <v>6</v>
@@ -8975,7 +8977,7 @@
         <v>11</v>
       </c>
       <c r="J3" s="23">
-        <v>45872</v>
+        <v>45992</v>
       </c>
       <c r="K3">
         <v>5</v>
@@ -9044,7 +9046,7 @@
         <v>10</v>
       </c>
       <c r="J4" s="23">
-        <v>45929</v>
+        <v>45993</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -9113,7 +9115,7 @@
         <v>10</v>
       </c>
       <c r="J5" s="23">
-        <v>45930</v>
+        <v>45994</v>
       </c>
       <c r="K5">
         <v>6</v>
@@ -9182,7 +9184,7 @@
         <v>11</v>
       </c>
       <c r="J6" s="23">
-        <v>45870</v>
+        <v>45995</v>
       </c>
       <c r="K6">
         <v>7</v>
@@ -9251,7 +9253,7 @@
         <v>8</v>
       </c>
       <c r="J7" s="23">
-        <v>45895</v>
+        <v>45996</v>
       </c>
       <c r="K7">
         <v>6</v>
@@ -9320,7 +9322,7 @@
         <v>11</v>
       </c>
       <c r="J8" s="23">
-        <v>45898</v>
+        <v>45997</v>
       </c>
       <c r="K8">
         <v>7</v>
@@ -9389,7 +9391,7 @@
         <v>10</v>
       </c>
       <c r="J9" s="23">
-        <v>45930</v>
+        <v>45998</v>
       </c>
       <c r="K9">
         <v>6</v>
@@ -9458,7 +9460,7 @@
         <v>10</v>
       </c>
       <c r="J10" s="23">
-        <v>45899</v>
+        <v>45999</v>
       </c>
       <c r="K10">
         <v>7</v>
@@ -9527,7 +9529,7 @@
         <v>10</v>
       </c>
       <c r="J11" s="23">
-        <v>45899</v>
+        <v>46000</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -9596,7 +9598,7 @@
         <v>11</v>
       </c>
       <c r="J12" s="23">
-        <v>45896</v>
+        <v>46001</v>
       </c>
       <c r="K12">
         <v>8</v>
@@ -9665,7 +9667,7 @@
         <v>8</v>
       </c>
       <c r="J13" s="23">
-        <v>45930</v>
+        <v>46002</v>
       </c>
       <c r="K13">
         <v>9</v>
@@ -9734,7 +9736,7 @@
         <v>8</v>
       </c>
       <c r="J14" s="23">
-        <v>45883</v>
+        <v>46003</v>
       </c>
       <c r="K14">
         <v>10</v>
@@ -9803,7 +9805,7 @@
         <v>8</v>
       </c>
       <c r="J15" s="23">
-        <v>45897</v>
+        <v>46004</v>
       </c>
       <c r="K15">
         <v>5</v>
@@ -9872,7 +9874,7 @@
         <v>8</v>
       </c>
       <c r="J16" s="23">
-        <v>45930</v>
+        <v>46005</v>
       </c>
       <c r="K16">
         <v>7</v>
@@ -9941,7 +9943,7 @@
         <v>10</v>
       </c>
       <c r="J17" s="23">
-        <v>45930</v>
+        <v>46006</v>
       </c>
       <c r="K17">
         <v>9</v>
@@ -10010,7 +10012,7 @@
         <v>11</v>
       </c>
       <c r="J18" s="23">
-        <v>45889</v>
+        <v>46007</v>
       </c>
       <c r="K18">
         <v>7</v>
@@ -10079,7 +10081,7 @@
         <v>11</v>
       </c>
       <c r="J19" s="23">
-        <v>45894</v>
+        <v>46008</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -10148,7 +10150,7 @@
         <v>11</v>
       </c>
       <c r="J20" s="23">
-        <v>45904</v>
+        <v>46009</v>
       </c>
       <c r="K20" s="4">
         <v>3</v>
@@ -10217,7 +10219,7 @@
         <v>10</v>
       </c>
       <c r="J21" s="23">
-        <v>45923</v>
+        <v>46010</v>
       </c>
       <c r="K21">
         <v>8</v>
@@ -10286,7 +10288,7 @@
         <v>11</v>
       </c>
       <c r="J22" s="23">
-        <v>45873</v>
+        <v>46011</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -10355,7 +10357,7 @@
         <v>8</v>
       </c>
       <c r="J23" s="23">
-        <v>45885</v>
+        <v>46012</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -10424,7 +10426,7 @@
         <v>10</v>
       </c>
       <c r="J24" s="23">
-        <v>45919</v>
+        <v>46013</v>
       </c>
       <c r="K24">
         <v>9</v>
@@ -10493,7 +10495,7 @@
         <v>10</v>
       </c>
       <c r="J25" s="23">
-        <v>45922</v>
+        <v>46014</v>
       </c>
       <c r="K25">
         <v>9</v>
@@ -10562,7 +10564,7 @@
         <v>8</v>
       </c>
       <c r="J26" s="23">
-        <v>45930</v>
+        <v>46015</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -12977,7 +12979,7 @@
         <v>9</v>
       </c>
       <c r="J61" s="23">
-        <v>45890</v>
+        <v>45991</v>
       </c>
       <c r="K61" s="4">
         <v>5</v>
@@ -13046,7 +13048,7 @@
         <v>10</v>
       </c>
       <c r="J62" s="23">
-        <v>45893</v>
+        <v>45992</v>
       </c>
       <c r="K62">
         <v>1</v>
@@ -13115,7 +13117,7 @@
         <v>10</v>
       </c>
       <c r="J63" s="23">
-        <v>45907</v>
+        <v>45993</v>
       </c>
       <c r="K63">
         <v>3</v>
@@ -13184,7 +13186,7 @@
         <v>9</v>
       </c>
       <c r="J64" s="23">
-        <v>45951</v>
+        <v>45994</v>
       </c>
       <c r="K64">
         <v>5</v>
@@ -13253,7 +13255,7 @@
         <v>11</v>
       </c>
       <c r="J65" s="23">
-        <v>45901</v>
+        <v>45995</v>
       </c>
       <c r="K65">
         <v>8</v>
@@ -13322,7 +13324,7 @@
         <v>8</v>
       </c>
       <c r="J66" s="23">
-        <v>45911</v>
+        <v>45996</v>
       </c>
       <c r="K66">
         <v>2</v>
@@ -13391,7 +13393,7 @@
         <v>10</v>
       </c>
       <c r="J67" s="23">
-        <v>45916</v>
+        <v>45997</v>
       </c>
       <c r="K67">
         <v>2</v>
@@ -13460,7 +13462,7 @@
         <v>11</v>
       </c>
       <c r="J68" s="23">
-        <v>45874</v>
+        <v>45998</v>
       </c>
       <c r="K68">
         <v>9</v>
@@ -13529,7 +13531,7 @@
         <v>9</v>
       </c>
       <c r="J69" s="23">
-        <v>45877</v>
+        <v>45999</v>
       </c>
       <c r="K69">
         <v>5</v>
@@ -13598,7 +13600,7 @@
         <v>10</v>
       </c>
       <c r="J70" s="23">
-        <v>45908</v>
+        <v>46000</v>
       </c>
       <c r="K70">
         <v>2</v>
@@ -13667,7 +13669,7 @@
         <v>8</v>
       </c>
       <c r="J71" s="23">
-        <v>45912</v>
+        <v>46001</v>
       </c>
       <c r="K71">
         <v>9</v>
@@ -13736,7 +13738,7 @@
         <v>10</v>
       </c>
       <c r="J72" s="23">
-        <v>45914</v>
+        <v>46002</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -13805,7 +13807,7 @@
         <v>8</v>
       </c>
       <c r="J73" s="23">
-        <v>45915</v>
+        <v>46003</v>
       </c>
       <c r="K73">
         <v>1</v>
@@ -13874,7 +13876,7 @@
         <v>9</v>
       </c>
       <c r="J74" s="23">
-        <v>45871</v>
+        <v>46004</v>
       </c>
       <c r="K74">
         <v>5</v>
@@ -13943,7 +13945,7 @@
         <v>11</v>
       </c>
       <c r="J75" s="23">
-        <v>45892</v>
+        <v>46005</v>
       </c>
       <c r="K75">
         <v>2</v>
@@ -14012,7 +14014,7 @@
         <v>10</v>
       </c>
       <c r="J76" s="23">
-        <v>45906</v>
+        <v>46006</v>
       </c>
       <c r="K76">
         <v>9</v>
@@ -14081,7 +14083,7 @@
         <v>9</v>
       </c>
       <c r="J77" s="23">
-        <v>45910</v>
+        <v>46007</v>
       </c>
       <c r="K77">
         <v>8</v>
@@ -14150,7 +14152,7 @@
         <v>8</v>
       </c>
       <c r="J78" s="23">
-        <v>45917</v>
+        <v>46008</v>
       </c>
       <c r="K78">
         <v>7</v>
@@ -14219,7 +14221,7 @@
         <v>10</v>
       </c>
       <c r="J79" s="23">
-        <v>45930</v>
+        <v>46009</v>
       </c>
       <c r="K79">
         <v>9</v>
@@ -14288,7 +14290,7 @@
         <v>10</v>
       </c>
       <c r="J80" s="23">
-        <v>45930</v>
+        <v>46010</v>
       </c>
       <c r="K80">
         <v>1</v>
@@ -14357,7 +14359,7 @@
         <v>11</v>
       </c>
       <c r="J81" s="23">
-        <v>45887</v>
+        <v>46011</v>
       </c>
       <c r="K81">
         <v>5</v>
@@ -14426,7 +14428,7 @@
         <v>8</v>
       </c>
       <c r="J82" s="23">
-        <v>45899</v>
+        <v>46012</v>
       </c>
       <c r="K82">
         <v>9</v>
@@ -14495,7 +14497,7 @@
         <v>10</v>
       </c>
       <c r="J83" s="23">
-        <v>45918</v>
+        <v>46013</v>
       </c>
       <c r="K83">
         <v>5</v>
@@ -14564,7 +14566,7 @@
         <v>10</v>
       </c>
       <c r="J84" s="23">
-        <v>45925</v>
+        <v>46014</v>
       </c>
       <c r="K84">
         <v>4</v>
@@ -14633,7 +14635,7 @@
         <v>10</v>
       </c>
       <c r="J85" s="23">
-        <v>45930</v>
+        <v>46015</v>
       </c>
       <c r="K85">
         <v>6</v>
